--- a/Part1.xlsx
+++ b/Part1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zby15\Documents\GitHub\program-evaluation-glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6895401-BCEB-43B1-82B8-F88773559ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F60D1-B5BC-4859-838B-F18E1BD567A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
-    <t>program evaluation</t>
-  </si>
-  <si>
     <t>Evaluation is the systematic assessment of the design, implementation or results of an initiative for the purposes of learning or decision-making.</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Ensures transparency and competitiveness in selecting the best proposals for a project or evaluation.</t>
+  </si>
+  <si>
+    <t>Program Evaluation</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,14 +497,14 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="248" x14ac:dyDescent="0.35">
@@ -512,16 +512,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="263.5" x14ac:dyDescent="0.35">
@@ -529,16 +529,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="294.5" x14ac:dyDescent="0.35">
@@ -546,16 +546,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="263.5" x14ac:dyDescent="0.35">
@@ -563,16 +563,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="279" x14ac:dyDescent="0.35">
@@ -580,16 +580,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="387.5" x14ac:dyDescent="0.35">
@@ -597,16 +597,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="217" x14ac:dyDescent="0.35">
@@ -614,16 +614,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="310" x14ac:dyDescent="0.35">
@@ -631,16 +631,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="263.5" x14ac:dyDescent="0.35">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="310" x14ac:dyDescent="0.35">
@@ -665,27 +665,23 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B11">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B11">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B11">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
